--- a/generated_docs/WR_89941778_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89941778_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I88"/>
+  <dimension ref="A2:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>18420.12</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,28 +867,28 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>EQL-1-4-C-4-C-LC1</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,32 +897,32 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>355.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,122 +956,122 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>293.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>CON-2-AAA-1-B</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>2</v>
+        <v>382</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>236.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>ALT-400-HFMSGL</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>257.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,30 +1116,30 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>ALT-400-HFMSGL</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>1113.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,11 +1203,11 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,20 +1228,20 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>476</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1305,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1441,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,41 +1466,41 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,66 +1543,66 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>427.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1611,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>570.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,32 +1645,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,32 +1679,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>71.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,32 +1713,32 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,17 +1747,17 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
@@ -1781,17 +1781,17 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
@@ -1819,13 +1819,13 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
@@ -1853,62 +1853,62 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,66 +1917,66 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>599.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,32 +1985,32 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,17 +2019,17 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
@@ -2057,62 +2057,62 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>376.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2121,32 +2121,32 @@
         </is>
       </c>
       <c r="F56" s="10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2155,32 +2155,32 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,32 +2189,32 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,22 +2257,22 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,22 +2291,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,66 +2359,66 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>96.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2427,32 +2427,32 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SPA</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack Span Alum</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2461,32 +2461,32 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>380.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2495,66 +2495,66 @@
         </is>
       </c>
       <c r="F67" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>71.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>124.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2567,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2597,32 +2597,32 @@
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,18 +2635,18 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2665,22 +2665,22 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2690,31 +2690,31 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2737,18 +2737,18 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,17 +2767,17 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
@@ -2801,22 +2801,22 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2835,22 +2835,22 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>UGND-TAG-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>5.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 43</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>UPTM-SO-10-15</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2903,32 +2903,32 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>316.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2941,28 +2941,28 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SPA</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack Span Alum</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2971,32 +2971,32 @@
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>380.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3043,18 +3043,18 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3111,18 +3111,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>UGND-TAG-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3141,22 +3141,22 @@
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>5.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 44</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>UPTM-SO-2-15</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3166,36 +3166,1056 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>UPTM,Shrink Outdoor,2,15kV</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>22.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="15" t="inlineStr">
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E88" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="inlineStr">
+        <is>
+          <t>DEG-2-SPA</t>
+        </is>
+      </c>
+      <c r="C89" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D89" s="12" t="inlineStr">
+        <is>
+          <t>DEG,#2,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E89" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" s="13" t="inlineStr"/>
+      <c r="H89" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E90" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C91" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D91" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E91" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" s="13" t="inlineStr"/>
+      <c r="H91" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C93" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" s="13" t="inlineStr"/>
+      <c r="H93" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
+        <is>
+          <t>Point 42</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="inlineStr">
+        <is>
+          <t>DEG-10-SPA</t>
+        </is>
+      </c>
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>UGND-TAG-C</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 43</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>UPTM-SO-10-15</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>DEG-2-SPA</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>DEG,#2,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>UGND-TAG-C</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 44</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
+        <is>
+          <t>UPTM-SO-2-15</t>
+        </is>
+      </c>
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>UPTM,Shrink Outdoor,2,15kV</t>
+        </is>
+      </c>
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H88" s="16" t="n">
-        <v>18420.12000000001</v>
+      <c r="H118" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A118:G118"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>

--- a/generated_docs/WR_89941778_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89941778_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I118"/>
+  <dimension ref="A2:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>18420.12</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P18</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="19">
@@ -867,28 +863,28 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-LC1</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,32 +893,32 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>CON-2-AAA-1-B</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +927,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>355.26</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,122 +952,122 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>293.88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>236.76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>ALT-400-HFMSGL</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>257.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="26">
@@ -1082,17 +1078,17 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1097,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="27">
@@ -1116,30 +1112,30 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>ALT-400-HFMSGL</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>2</v>
+        <v>476</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>1113.84</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1165,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,11 +1199,11 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,20 +1224,20 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1267,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1301,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,7 +1407,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1437,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,41 +1462,41 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1509,32 +1505,32 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,66 +1539,66 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>427.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,32 +1607,32 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>570.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,32 +1641,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,32 +1675,32 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,32 +1709,32 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,17 +1743,17 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 40</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
@@ -1767,7 +1763,7 @@
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D46" s="9" t="inlineStr">
@@ -1781,17 +1777,17 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
@@ -1801,7 +1797,7 @@
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D47" s="12" t="inlineStr">
@@ -1819,13 +1815,13 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
@@ -1835,7 +1831,7 @@
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
@@ -1853,62 +1849,62 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1917,66 +1913,66 @@
         </is>
       </c>
       <c r="F50" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>599.04</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,32 +1981,32 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,17 +2015,17 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
@@ -2039,7 +2035,7 @@
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
@@ -2057,62 +2053,62 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F55" s="13" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2121,32 +2117,32 @@
         </is>
       </c>
       <c r="F56" s="10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2155,32 +2151,32 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,32 +2185,32 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 41</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2223,22 +2219,22 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2244,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,22 +2253,22 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2278,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,22 +2287,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2312,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,22 +2321,22 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 40</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>BKT-PI24-F-C</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2359,66 +2355,66 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>96.72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2427,32 +2423,32 @@
         </is>
       </c>
       <c r="F65" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>285.45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>DEG-2-SPA</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>DEG,#2,Slack Span Alum</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2461,32 +2457,32 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>380.6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2495,66 +2491,66 @@
         </is>
       </c>
       <c r="F67" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>124.32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2563,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2597,32 +2593,32 @@
         </is>
       </c>
       <c r="F70" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 42</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,18 +2631,18 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2656,7 +2652,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2665,22 +2661,22 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2690,31 +2686,31 @@
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2724,7 +2720,7 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2737,18 +2733,18 @@
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2758,7 +2754,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2767,17 +2763,17 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
@@ -2801,22 +2797,22 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -2826,7 +2822,7 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2835,22 +2831,22 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>UGND-TAG-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2860,7 +2856,7 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2869,22 +2865,22 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 43</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>UPTM-SO-10-15</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2894,7 +2890,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2903,32 +2899,32 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>316.26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2941,28 +2937,28 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>DEG-2-SPA</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>DEG,#2,Slack Span Alum</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2971,32 +2967,32 @@
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>380.6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 41</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -3005,22 +3001,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -3030,7 +3026,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3043,18 +3039,18 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -3064,7 +3060,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3073,22 +3069,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -3098,7 +3094,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3111,18 +3107,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F-C</t>
+          <t>UGND-TAG-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -3132,7 +3128,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls,Corr</t>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3141,22 +3137,22 @@
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 42</t>
+          <t>Point 44</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>UPTM-SO-2-15</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3166,1056 +3162,36 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>UPTM,Shrink Outdoor,2,15kV</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B88" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C88" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D88" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E88" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F88" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G88" s="10" t="inlineStr"/>
-      <c r="H88" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B89" s="12" t="inlineStr">
-        <is>
-          <t>DEG-2-SPA</t>
-        </is>
-      </c>
-      <c r="C89" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D89" s="12" t="inlineStr">
-        <is>
-          <t>DEG,#2,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E89" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F89" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G89" s="13" t="inlineStr"/>
-      <c r="H89" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C90" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D90" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E90" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F90" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="10" t="inlineStr"/>
-      <c r="H90" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B91" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP-C</t>
-        </is>
-      </c>
-      <c r="C91" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D91" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E91" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F91" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" s="13" t="inlineStr"/>
-      <c r="H91" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="inlineStr">
-        <is>
-          <t>GYW-38C</t>
-        </is>
-      </c>
-      <c r="C92" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D92" s="9" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
-        </is>
-      </c>
-      <c r="E92" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F92" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G92" s="10" t="inlineStr"/>
-      <c r="H92" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B93" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C93" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D93" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E93" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G93" s="13" t="inlineStr"/>
-      <c r="H93" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C94" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D94" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E94" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G94" s="10" t="inlineStr"/>
-      <c r="H94" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B95" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C95" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D95" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E95" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G95" s="13" t="inlineStr"/>
-      <c r="H95" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B96" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-ARM-C</t>
-        </is>
-      </c>
-      <c r="C96" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="9" t="inlineStr">
-        <is>
-          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
-        </is>
-      </c>
-      <c r="E96" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G96" s="10" t="inlineStr"/>
-      <c r="H96" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B97" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C97" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D97" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E97" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" s="13" t="inlineStr"/>
-      <c r="H97" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C98" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E98" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="10" t="inlineStr"/>
-      <c r="H98" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B99" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C99" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E99" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="13" t="inlineStr"/>
-      <c r="H99" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="9" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C100" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D100" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E100" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="10" t="inlineStr"/>
-      <c r="H100" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="12" t="inlineStr">
-        <is>
-          <t>Point 42</t>
-        </is>
-      </c>
-      <c r="B101" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C101" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D101" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E101" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G101" s="13" t="inlineStr"/>
-      <c r="H101" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL-C</t>
-        </is>
-      </c>
-      <c r="C102" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D102" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
-        </is>
-      </c>
-      <c r="E102" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="10" t="inlineStr"/>
-      <c r="H102" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="12" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B103" s="12" t="inlineStr">
-        <is>
-          <t>DEG-10-SPA</t>
-        </is>
-      </c>
-      <c r="C103" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D103" s="12" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E103" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G103" s="13" t="inlineStr"/>
-      <c r="H103" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="9" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B104" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C104" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E104" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" s="10" t="inlineStr"/>
-      <c r="H104" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="12" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B105" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C105" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D105" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E105" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="13" t="inlineStr"/>
-      <c r="H105" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="9" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C106" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D106" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E106" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G106" s="10" t="inlineStr"/>
-      <c r="H106" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="12" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B107" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C107" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E107" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F107" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="13" t="inlineStr"/>
-      <c r="H107" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="9" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B108" s="9" t="inlineStr">
-        <is>
-          <t>UGND-TAG-C</t>
-        </is>
-      </c>
-      <c r="C108" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="9" t="inlineStr">
-        <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
-        </is>
-      </c>
-      <c r="E108" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" s="10" t="inlineStr"/>
-      <c r="H108" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="12" t="inlineStr">
-        <is>
-          <t>Point 43</t>
-        </is>
-      </c>
-      <c r="B109" s="12" t="inlineStr">
-        <is>
-          <t>UPTM-SO-10-15</t>
-        </is>
-      </c>
-      <c r="C109" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="12" t="inlineStr">
-        <is>
-          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
-        </is>
-      </c>
-      <c r="E109" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G109" s="13" t="inlineStr"/>
-      <c r="H109" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="9" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL-C</t>
-        </is>
-      </c>
-      <c r="C110" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D110" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
-        </is>
-      </c>
-      <c r="E110" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" s="10" t="inlineStr"/>
-      <c r="H110" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="12" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B111" s="12" t="inlineStr">
-        <is>
-          <t>DEG-2-SPA</t>
-        </is>
-      </c>
-      <c r="C111" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D111" s="12" t="inlineStr">
-        <is>
-          <t>DEG,#2,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E111" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G111" s="13" t="inlineStr"/>
-      <c r="H111" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C112" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D112" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E112" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G112" s="10" t="inlineStr"/>
-      <c r="H112" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="12" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B113" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C113" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D113" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E113" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="13" t="inlineStr"/>
-      <c r="H113" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C114" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D114" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G114" s="10" t="inlineStr"/>
-      <c r="H114" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="12" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B115" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C115" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D115" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E115" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="13" t="inlineStr"/>
-      <c r="H115" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="inlineStr">
-        <is>
-          <t>UGND-TAG-C</t>
-        </is>
-      </c>
-      <c r="C116" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D116" s="9" t="inlineStr">
-        <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
-        </is>
-      </c>
-      <c r="E116" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" s="10" t="inlineStr"/>
-      <c r="H116" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="12" t="inlineStr">
-        <is>
-          <t>Point 44</t>
-        </is>
-      </c>
-      <c r="B117" s="12" t="inlineStr">
-        <is>
-          <t>UPTM-SO-2-15</t>
-        </is>
-      </c>
-      <c r="C117" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D117" s="12" t="inlineStr">
-        <is>
-          <t>UPTM,Shrink Outdoor,2,15kV</t>
-        </is>
-      </c>
-      <c r="E117" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G117" s="13" t="inlineStr"/>
-      <c r="H117" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="15" t="inlineStr">
+      <c r="A88" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H118" s="16" t="n">
-        <v>0</v>
+      <c r="H88" s="16" t="n">
+        <v>18420.12000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A88:G88"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
